--- a/Data/Implementation_Evaluation.xlsx
+++ b/Data/Implementation_Evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saile\OneDrive - Otto-Friedrich-Universität Bamberg\ms-framework-comparison\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4438C67-E3E4-4107-9E95-16104B566F3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9461E7E7-634E-4211-9BD6-6AA6091AD872}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>1.1 Distributed Configuration</t>
   </si>
@@ -50,9 +50,6 @@
     <t>6.7 Distributed Tracing</t>
   </si>
   <si>
-    <t>1.4 Security</t>
-  </si>
-  <si>
     <t>4.2 REST</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
     <t>6.5 Monitoring</t>
   </si>
   <si>
-    <t>9. Cloud Native</t>
-  </si>
-  <si>
     <t>1. Service Independence</t>
   </si>
   <si>
@@ -101,9 +95,6 @@
     <t>6.6 Metrics</t>
   </si>
   <si>
-    <t>6.8 Asynchronous</t>
-  </si>
-  <si>
     <t>8. Evolutionary Design</t>
   </si>
   <si>
@@ -126,6 +117,12 @@
   </si>
   <si>
     <t>Average Score:</t>
+  </si>
+  <si>
+    <t>1.4 Access Control</t>
+  </si>
+  <si>
+    <t>3.1 Interface Specification</t>
   </si>
 </sst>
 </file>
@@ -244,7 +241,7 @@
       <name val="CMU Serif"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,8 +320,14 @@
         <bgColor rgb="FFBFBFBF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FFBFBFBF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -436,21 +439,6 @@
         <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
@@ -482,7 +470,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -511,13 +499,10 @@
     <xf numFmtId="0" fontId="18" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -537,6 +522,12 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -874,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -885,31 +876,30 @@
     <col min="1" max="1" width="26" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="11.19921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.8">
-      <c r="A1" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>11</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.8">
       <c r="A2" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -920,16 +910,16 @@
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="14">
         <v>4</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="15">
         <v>3</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <v>4</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>0</v>
       </c>
     </row>
@@ -937,194 +927,186 @@
       <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <v>4</v>
       </c>
-      <c r="C4" s="15">
-        <v>0</v>
-      </c>
-      <c r="D4" s="16">
-        <v>5</v>
-      </c>
-      <c r="E4" s="15">
+      <c r="C4" s="14">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15">
+        <v>5</v>
+      </c>
+      <c r="E4" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.8">
-      <c r="A5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="15">
-        <v>5</v>
-      </c>
-      <c r="C5" s="15">
-        <v>0</v>
-      </c>
-      <c r="D5" s="16">
-        <v>0</v>
-      </c>
-      <c r="E5" s="15">
+      <c r="A5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="14">
+        <v>5</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0</v>
+      </c>
+      <c r="E5" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.8">
       <c r="A6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="15">
-        <v>5</v>
-      </c>
-      <c r="C6" s="15">
-        <v>0</v>
-      </c>
-      <c r="D6" s="15">
-        <v>0</v>
-      </c>
-      <c r="E6" s="15">
+        <v>29</v>
+      </c>
+      <c r="B6" s="14">
+        <v>5</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0</v>
+      </c>
+      <c r="E6" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.6" customHeight="1">
       <c r="A7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="15">
+        <v>16</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.6" customHeight="1">
+      <c r="A8" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="14">
         <v>4</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C8" s="14">
         <v>1</v>
       </c>
-      <c r="D7" s="15">
-        <v>0</v>
-      </c>
-      <c r="E7" s="15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="31.2">
-      <c r="A8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" spans="1:5" ht="16.8">
-      <c r="A9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="15">
-        <v>4</v>
-      </c>
-      <c r="C9" s="15">
-        <v>4</v>
-      </c>
-      <c r="D9" s="15">
-        <v>4</v>
-      </c>
-      <c r="E9" s="15">
-        <v>2</v>
-      </c>
+      <c r="D8" s="14">
+        <v>0</v>
+      </c>
+      <c r="E8" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="31.2">
+      <c r="A9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:5" ht="16.8">
       <c r="A10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="15">
-        <v>5</v>
-      </c>
-      <c r="C10" s="15">
-        <v>5</v>
-      </c>
-      <c r="D10" s="15">
+        <v>6</v>
+      </c>
+      <c r="B10" s="14">
         <v>4</v>
       </c>
-      <c r="E10" s="15">
+      <c r="C10" s="14">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="31.2">
-      <c r="A11" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-    </row>
-    <row r="12" spans="1:5" ht="16.8">
-      <c r="A12" s="9" t="s">
+      <c r="D10" s="14">
+        <v>4</v>
+      </c>
+      <c r="E10" s="14">
         <v>2</v>
       </c>
-      <c r="B12" s="17">
+    </row>
+    <row r="11" spans="1:5" ht="16.8">
+      <c r="A11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="14">
+        <v>5</v>
+      </c>
+      <c r="C11" s="14">
+        <v>5</v>
+      </c>
+      <c r="D11" s="14">
         <v>4</v>
       </c>
-      <c r="C12" s="17">
+      <c r="E11" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="31.2">
+      <c r="A12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+    </row>
+    <row r="13" spans="1:5" ht="16.8">
+      <c r="A13" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="17">
-        <v>0</v>
-      </c>
-      <c r="E12" s="17">
+      <c r="B13" s="16">
+        <v>4</v>
+      </c>
+      <c r="C13" s="16">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="16.8">
-      <c r="A13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="17"/>
+      <c r="D13" s="16">
+        <v>0</v>
+      </c>
+      <c r="E13" s="16">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="16.8">
-      <c r="A14" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="17">
-        <v>5</v>
-      </c>
-      <c r="C14" s="17">
-        <v>0</v>
-      </c>
-      <c r="D14" s="17">
-        <v>3</v>
-      </c>
-      <c r="E14" s="17">
-        <v>0</v>
-      </c>
+      <c r="A14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="16"/>
     </row>
     <row r="15" spans="1:5" ht="16.8">
       <c r="A15" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="17">
-        <v>5</v>
-      </c>
-      <c r="C15" s="17">
-        <v>0</v>
-      </c>
-      <c r="D15" s="18">
-        <v>5</v>
-      </c>
-      <c r="E15" s="18">
+        <v>3</v>
+      </c>
+      <c r="B15" s="16">
+        <v>5</v>
+      </c>
+      <c r="C15" s="16">
+        <v>0</v>
+      </c>
+      <c r="D15" s="16">
+        <v>3</v>
+      </c>
+      <c r="E15" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.8">
       <c r="A16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="17">
-        <v>5</v>
-      </c>
-      <c r="C16" s="17">
+        <v>4</v>
+      </c>
+      <c r="B16" s="16">
+        <v>5</v>
+      </c>
+      <c r="C16" s="16">
         <v>0</v>
       </c>
       <c r="D16" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E16" s="17">
         <v>0</v>
@@ -1132,210 +1114,193 @@
     </row>
     <row r="17" spans="1:5" ht="16.8">
       <c r="A17" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="17">
-        <v>5</v>
-      </c>
-      <c r="C17" s="17">
-        <v>0</v>
-      </c>
-      <c r="D17" s="17">
-        <v>0</v>
-      </c>
-      <c r="E17" s="17">
+        <v>13</v>
+      </c>
+      <c r="B17" s="16">
+        <v>5</v>
+      </c>
+      <c r="C17" s="16">
+        <v>0</v>
+      </c>
+      <c r="D17" s="16">
+        <v>0</v>
+      </c>
+      <c r="E17" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.8">
       <c r="A18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="17">
-        <v>5</v>
-      </c>
-      <c r="C18" s="17">
-        <v>1</v>
-      </c>
-      <c r="D18" s="17">
-        <v>1</v>
-      </c>
-      <c r="E18" s="17">
+        <v>14</v>
+      </c>
+      <c r="B18" s="16">
+        <v>5</v>
+      </c>
+      <c r="C18" s="16">
+        <v>0</v>
+      </c>
+      <c r="D18" s="16">
+        <v>0</v>
+      </c>
+      <c r="E18" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.8">
       <c r="A19" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="17">
-        <v>5</v>
-      </c>
-      <c r="C19" s="17">
+        <v>20</v>
+      </c>
+      <c r="B19" s="16">
+        <v>5</v>
+      </c>
+      <c r="C19" s="16">
         <v>1</v>
       </c>
-      <c r="D19" s="17">
-        <v>0</v>
-      </c>
-      <c r="E19" s="17">
+      <c r="D19" s="16">
+        <v>1</v>
+      </c>
+      <c r="E19" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16.8">
       <c r="A20" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="17">
-        <v>5</v>
-      </c>
-      <c r="C20" s="17">
-        <v>5</v>
-      </c>
-      <c r="D20" s="18">
-        <v>5</v>
-      </c>
-      <c r="E20" s="17">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="B20" s="16">
+        <v>5</v>
+      </c>
+      <c r="C20" s="16">
+        <v>1</v>
+      </c>
+      <c r="D20" s="16">
+        <v>0</v>
+      </c>
+      <c r="E20" s="16">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.8">
       <c r="A21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="16">
+        <v>5</v>
+      </c>
+      <c r="C21" s="16">
+        <v>0</v>
+      </c>
+      <c r="D21" s="16">
+        <v>0</v>
+      </c>
+      <c r="E21" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="31.2">
+      <c r="A22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+    </row>
+    <row r="23" spans="1:5" ht="16.8">
+      <c r="A23" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="17">
-        <v>5</v>
-      </c>
-      <c r="C21" s="17">
-        <v>0</v>
-      </c>
-      <c r="D21" s="17">
-        <v>0</v>
-      </c>
-      <c r="E21" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="17.399999999999999" thickBot="1">
-      <c r="A22" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="17">
-        <v>5</v>
-      </c>
-      <c r="C22" s="17">
-        <v>0</v>
-      </c>
-      <c r="D22" s="17">
-        <v>4</v>
-      </c>
-      <c r="E22" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="31.8" thickTop="1">
-      <c r="A23" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
+      <c r="B23" s="16">
+        <v>2</v>
+      </c>
+      <c r="C23" s="16">
+        <v>0</v>
+      </c>
+      <c r="D23" s="16">
+        <v>5</v>
+      </c>
+      <c r="E23" s="16">
+        <v>5</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="16.8">
       <c r="A24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="16">
+        <v>5</v>
+      </c>
+      <c r="C24" s="16">
+        <v>3</v>
+      </c>
+      <c r="D24" s="16">
+        <v>2</v>
+      </c>
+      <c r="E24" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="17.399999999999999" thickBot="1">
+      <c r="A25" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="18">
+        <v>5</v>
+      </c>
+      <c r="C25" s="18">
+        <v>4</v>
+      </c>
+      <c r="D25" s="18">
+        <v>4</v>
+      </c>
+      <c r="E25" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="17.399999999999999" thickTop="1">
+      <c r="A26" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="17">
-        <v>2</v>
-      </c>
-      <c r="C24" s="17">
-        <v>0</v>
-      </c>
-      <c r="D24" s="17">
-        <v>5</v>
-      </c>
-      <c r="E24" s="17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="16.8">
-      <c r="A25" s="8" t="s">
+      <c r="B26" s="19">
+        <f>B3+B4+B5+B6+B8+B10+B11+B13+B15+B16+B17+B18+B19+B20+B21+B23+B24+B25</f>
+        <v>82</v>
+      </c>
+      <c r="C26" s="19">
+        <f>C3+C4+C5+C6+C8+C10+C11+C13+C15+C16+C17+C18+C19+C20+C21+C23+C24+C25</f>
+        <v>24</v>
+      </c>
+      <c r="D26" s="19">
+        <f>D3+D4+D5+D6+D8+D10+D11+D13+D15+D16+D17+D18+D19+D20++D21+D23+D24+D25</f>
+        <v>37</v>
+      </c>
+      <c r="E26" s="19">
+        <f>E3+E4+E5+E6+E8+E10+E11+E13+E15+E16+E17+E18+E19+E20+E21+E23+E24+E25</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16.8">
+      <c r="A27" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="17">
-        <v>5</v>
-      </c>
-      <c r="C25" s="17">
-        <v>3</v>
-      </c>
-      <c r="D25" s="17">
-        <v>2</v>
-      </c>
-      <c r="E25" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="17.399999999999999" thickBot="1">
-      <c r="A26" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="19">
-        <v>5</v>
-      </c>
-      <c r="C26" s="19">
-        <v>4</v>
-      </c>
-      <c r="D26" s="19">
-        <v>4</v>
-      </c>
-      <c r="E26" s="19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="17.399999999999999" thickTop="1">
-      <c r="A27" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="20">
-        <f>B3+B4+B5+B6+B7+B9+B10+B12+B14+B15+B16+B17+B18+B19+B20+B21+B22+B24+B25+B26</f>
-        <v>92</v>
-      </c>
-      <c r="C27" s="20">
-        <f>C3+C4+C5+C6+C7+C9+C10+C12+C14+C15+C16+C17+C18+C19+C20+C21+C22+C24+C25+C26</f>
-        <v>29</v>
-      </c>
-      <c r="D27" s="20">
-        <f>D3+D4+D5+D6+D7+D9+D10+D12+D14+D15+D16+D17+D18+D19+D20+D21+D22+D24+D25+D26</f>
-        <v>46</v>
-      </c>
-      <c r="E27" s="20">
-        <f>E3+E4+E5+E6+E7+E9+E10+E12+E14+E15+E16+E17+E18+E19+E20+E21+E22+E24+E25+E26</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="16.8">
-      <c r="A28" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="17">
-        <f>B27/20</f>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C28" s="17">
-        <f>C27/20</f>
-        <v>1.45</v>
-      </c>
-      <c r="D28" s="17">
-        <f>D27/20</f>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E28" s="17">
-        <f>E27/20</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.6">
-      <c r="A32" s="5"/>
+      <c r="B27" s="16">
+        <f>B26/18</f>
+        <v>4.5555555555555554</v>
+      </c>
+      <c r="C27" s="16">
+        <f>C26/18</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="D27" s="16">
+        <f>D26/18</f>
+        <v>2.0555555555555554</v>
+      </c>
+      <c r="E27" s="16">
+        <f>E26/18</f>
+        <v>1.3888888888888888</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.6">
+      <c r="A31" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157477" bottom="0.39370078740157477" header="0" footer="0"/>

--- a/Data/Implementation_Evaluation.xlsx
+++ b/Data/Implementation_Evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saile\OneDrive - Otto-Friedrich-Universität Bamberg\ms-framework-comparison\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9461E7E7-634E-4211-9BD6-6AA6091AD872}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C59842-E280-40C8-AA2C-C3ABC244CDBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -470,7 +470,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -528,6 +528,9 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -865,62 +868,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.19921875" style="1"/>
+    <col min="2" max="2" width="6.296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.19921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.8">
       <c r="A1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.8">
       <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="16.8">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="14">
+        <v>0</v>
+      </c>
+      <c r="C3" s="15">
         <v>4</v>
       </c>
-      <c r="C3" s="15">
+      <c r="D3" s="14">
+        <v>4</v>
+      </c>
+      <c r="E3" s="15">
         <v>3</v>
-      </c>
-      <c r="D3" s="15">
-        <v>4</v>
-      </c>
-      <c r="E3" s="14">
-        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.8">
@@ -928,13 +932,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="14">
+        <v>0</v>
+      </c>
+      <c r="C4" s="15">
+        <v>5</v>
+      </c>
+      <c r="D4" s="14">
         <v>4</v>
-      </c>
-      <c r="C4" s="14">
-        <v>0</v>
-      </c>
-      <c r="D4" s="15">
-        <v>5</v>
       </c>
       <c r="E4" s="14">
         <v>0</v>
@@ -945,13 +949,13 @@
         <v>12</v>
       </c>
       <c r="B5" s="14">
-        <v>5</v>
-      </c>
-      <c r="C5" s="14">
-        <v>0</v>
-      </c>
-      <c r="D5" s="15">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14">
+        <v>5</v>
       </c>
       <c r="E5" s="14">
         <v>0</v>
@@ -962,13 +966,13 @@
         <v>29</v>
       </c>
       <c r="B6" s="14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C6" s="14">
         <v>0</v>
       </c>
       <c r="D6" s="14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E6" s="14">
         <v>0</v>
@@ -988,16 +992,16 @@
         <v>30</v>
       </c>
       <c r="B8" s="14">
+        <v>5</v>
+      </c>
+      <c r="C8" s="14">
+        <v>0</v>
+      </c>
+      <c r="D8" s="14">
         <v>4</v>
       </c>
-      <c r="C8" s="14">
+      <c r="E8" s="14">
         <v>1</v>
-      </c>
-      <c r="D8" s="14">
-        <v>0</v>
-      </c>
-      <c r="E8" s="14">
-        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="31.2">
@@ -1014,7 +1018,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10" s="14">
         <v>4</v>
@@ -1023,7 +1027,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.8">
@@ -1031,16 +1035,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="31.2">
@@ -1057,13 +1061,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="16">
+        <v>2</v>
+      </c>
+      <c r="C13" s="16">
+        <v>0</v>
+      </c>
+      <c r="D13" s="16">
         <v>4</v>
-      </c>
-      <c r="C13" s="16">
-        <v>2</v>
-      </c>
-      <c r="D13" s="16">
-        <v>0</v>
       </c>
       <c r="E13" s="16">
         <v>2</v>
@@ -1074,8 +1078,8 @@
         <v>19</v>
       </c>
       <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="16"/>
     </row>
     <row r="15" spans="1:5" ht="16.8">
@@ -1083,13 +1087,13 @@
         <v>3</v>
       </c>
       <c r="B15" s="16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C15" s="16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D15" s="16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E15" s="16">
         <v>0</v>
@@ -1099,16 +1103,16 @@
       <c r="A16" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="16">
-        <v>5</v>
-      </c>
-      <c r="C16" s="16">
-        <v>0</v>
-      </c>
-      <c r="D16" s="17">
-        <v>5</v>
-      </c>
-      <c r="E16" s="17">
+      <c r="B16" s="17">
+        <v>0</v>
+      </c>
+      <c r="C16" s="17">
+        <v>5</v>
+      </c>
+      <c r="D16" s="16">
+        <v>5</v>
+      </c>
+      <c r="E16" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1117,13 +1121,13 @@
         <v>13</v>
       </c>
       <c r="B17" s="16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C17" s="16">
         <v>0</v>
       </c>
       <c r="D17" s="16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E17" s="16">
         <v>0</v>
@@ -1134,13 +1138,13 @@
         <v>14</v>
       </c>
       <c r="B18" s="16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C18" s="16">
         <v>0</v>
       </c>
       <c r="D18" s="16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E18" s="16">
         <v>0</v>
@@ -1151,16 +1155,16 @@
         <v>20</v>
       </c>
       <c r="B19" s="16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C19" s="16">
         <v>1</v>
       </c>
       <c r="D19" s="16">
+        <v>5</v>
+      </c>
+      <c r="E19" s="16">
         <v>1</v>
-      </c>
-      <c r="E19" s="16">
-        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16.8">
@@ -1168,16 +1172,16 @@
         <v>5</v>
       </c>
       <c r="B20" s="16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C20" s="16">
+        <v>0</v>
+      </c>
+      <c r="D20" s="16">
+        <v>5</v>
+      </c>
+      <c r="E20" s="16">
         <v>1</v>
-      </c>
-      <c r="D20" s="16">
-        <v>0</v>
-      </c>
-      <c r="E20" s="16">
-        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.8">
@@ -1185,13 +1189,13 @@
         <v>21</v>
       </c>
       <c r="B21" s="16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C21" s="16">
         <v>0</v>
       </c>
       <c r="D21" s="16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E21" s="16">
         <v>0</v>
@@ -1211,16 +1215,16 @@
         <v>24</v>
       </c>
       <c r="B23" s="16">
+        <v>5</v>
+      </c>
+      <c r="C23" s="16">
+        <v>5</v>
+      </c>
+      <c r="D23" s="16">
         <v>2</v>
       </c>
-      <c r="C23" s="16">
-        <v>0</v>
-      </c>
-      <c r="D23" s="16">
-        <v>5</v>
-      </c>
       <c r="E23" s="16">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="16.8">
@@ -1228,13 +1232,13 @@
         <v>25</v>
       </c>
       <c r="B24" s="16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C24" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" s="16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E24" s="16">
         <v>3</v>
@@ -1245,13 +1249,13 @@
         <v>26</v>
       </c>
       <c r="B25" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25" s="18">
         <v>4</v>
       </c>
       <c r="D25" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E25" s="18">
         <v>4</v>
@@ -1263,19 +1267,19 @@
       </c>
       <c r="B26" s="19">
         <f>B3+B4+B5+B6+B8+B10+B11+B13+B15+B16+B17+B18+B19+B20+B21+B23+B24+B25</f>
+        <v>25</v>
+      </c>
+      <c r="C26" s="19">
+        <f>C3+C4+C5+C6+C8+C10+C11+C13+C15+C16+C17+C18+C19+C20++C21+C23+C24+C25</f>
+        <v>37</v>
+      </c>
+      <c r="D26" s="19">
+        <f>D3+D4+D5+D6+D8+D10+D11+D13+D15+D16+D17+D18+D19+D20+D21+D23+D24+D25</f>
         <v>82</v>
-      </c>
-      <c r="C26" s="19">
-        <f>C3+C4+C5+C6+C8+C10+C11+C13+C15+C16+C17+C18+C19+C20+C21+C23+C24+C25</f>
-        <v>24</v>
-      </c>
-      <c r="D26" s="19">
-        <f>D3+D4+D5+D6+D8+D10+D11+D13+D15+D16+D17+D18+D19+D20++D21+D23+D24+D25</f>
-        <v>37</v>
       </c>
       <c r="E26" s="19">
         <f>E3+E4+E5+E6+E8+E10+E11+E13+E15+E16+E17+E18+E19+E20+E21+E23+E24+E25</f>
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="16.8">
@@ -1284,19 +1288,19 @@
       </c>
       <c r="B27" s="16">
         <f>B26/18</f>
-        <v>4.5555555555555554</v>
+        <v>1.3888888888888888</v>
       </c>
       <c r="C27" s="16">
         <f>C26/18</f>
-        <v>1.3333333333333333</v>
+        <v>2.0555555555555554</v>
       </c>
       <c r="D27" s="16">
         <f>D26/18</f>
-        <v>2.0555555555555554</v>
+        <v>4.5555555555555554</v>
       </c>
       <c r="E27" s="16">
         <f>E26/18</f>
-        <v>1.3888888888888888</v>
+        <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.6">

--- a/Data/Implementation_Evaluation.xlsx
+++ b/Data/Implementation_Evaluation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saile\OneDrive - Otto-Friedrich-Universität Bamberg\ms-framework-comparison\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\work\conferences\2020_ESSE\comparison\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C59842-E280-40C8-AA2C-C3ABC244CDBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32309862-4F52-4D80-9C10-E8137EAA01B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>1.1 Distributed Configuration</t>
   </si>
@@ -123,6 +123,18 @@
   </si>
   <si>
     <t>3.1 Interface Specification</t>
+  </si>
+  <si>
+    <t>Moleculer</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>7. Automation</t>
+  </si>
+  <si>
+    <t>7.1 Containerization</t>
   </si>
 </sst>
 </file>
@@ -868,23 +880,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.19921875" style="1"/>
+    <col min="4" max="5" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="16384" width="11.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.8">
+    <row r="1" spans="1:6" ht="15.75">
       <c r="A1" s="12" t="s">
         <v>22</v>
       </c>
@@ -898,10 +911,13 @@
         <v>8</v>
       </c>
       <c r="E1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.8">
+    <row r="2" spans="1:6" ht="15.75">
       <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
@@ -909,8 +925,9 @@
       <c r="C2" s="3"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="16.8">
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -923,11 +940,14 @@
       <c r="D3" s="14">
         <v>4</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
+        <v>4</v>
+      </c>
+      <c r="F3" s="15">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.8">
+    <row r="4" spans="1:6">
       <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
@@ -941,10 +961,13 @@
         <v>4</v>
       </c>
       <c r="E4" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.8">
+        <v>5</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="20" t="s">
         <v>12</v>
       </c>
@@ -960,8 +983,11 @@
       <c r="E5" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.8">
+      <c r="F5" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="8" t="s">
         <v>29</v>
       </c>
@@ -974,11 +1000,14 @@
       <c r="D6" s="14">
         <v>5</v>
       </c>
-      <c r="E6" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.6" customHeight="1">
+      <c r="E6" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.6" customHeight="1">
       <c r="A7" s="10" t="s">
         <v>16</v>
       </c>
@@ -986,8 +1015,9 @@
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.6" customHeight="1">
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.6" customHeight="1">
       <c r="A8" s="21" t="s">
         <v>30</v>
       </c>
@@ -1001,10 +1031,13 @@
         <v>4</v>
       </c>
       <c r="E8" s="14">
+        <v>0</v>
+      </c>
+      <c r="F8" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="31.2">
+    <row r="9" spans="1:6" ht="30">
       <c r="A9" s="10" t="s">
         <v>17</v>
       </c>
@@ -1012,8 +1045,9 @@
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
-    </row>
-    <row r="10" spans="1:5" ht="16.8">
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="8" t="s">
         <v>6</v>
       </c>
@@ -1029,8 +1063,11 @@
       <c r="E10" s="14">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="16.8">
+      <c r="F10" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="8" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1083,11 @@
       <c r="E11" s="14">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="31.2">
+      <c r="F11" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30">
       <c r="A12" s="11" t="s">
         <v>18</v>
       </c>
@@ -1055,8 +1095,9 @@
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
-    </row>
-    <row r="13" spans="1:5" ht="16.8">
+      <c r="F12" s="16"/>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="9" t="s">
         <v>2</v>
       </c>
@@ -1070,10 +1111,13 @@
         <v>4</v>
       </c>
       <c r="E13" s="16">
+        <v>4</v>
+      </c>
+      <c r="F13" s="16">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16.8">
+    <row r="14" spans="1:6" ht="15.75">
       <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
@@ -1081,8 +1125,9 @@
       <c r="C14" s="17"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
-    </row>
-    <row r="15" spans="1:5" ht="16.8">
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="8" t="s">
         <v>3</v>
       </c>
@@ -1096,10 +1141,13 @@
         <v>5</v>
       </c>
       <c r="E15" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="16.8">
+        <v>4</v>
+      </c>
+      <c r="F15" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="8" t="s">
         <v>4</v>
       </c>
@@ -1113,10 +1161,13 @@
         <v>5</v>
       </c>
       <c r="E16" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="16.8">
+        <v>4</v>
+      </c>
+      <c r="F16" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="8" t="s">
         <v>13</v>
       </c>
@@ -1130,10 +1181,13 @@
         <v>5</v>
       </c>
       <c r="E17" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="16.8">
+        <v>4</v>
+      </c>
+      <c r="F17" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="8" t="s">
         <v>14</v>
       </c>
@@ -1146,11 +1200,14 @@
       <c r="D18" s="16">
         <v>5</v>
       </c>
-      <c r="E18" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="16.8">
+      <c r="E18" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="8" t="s">
         <v>20</v>
       </c>
@@ -1163,11 +1220,14 @@
       <c r="D19" s="16">
         <v>5</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16.8">
+    <row r="20" spans="1:6">
       <c r="A20" s="8" t="s">
         <v>5</v>
       </c>
@@ -1183,128 +1243,182 @@
       <c r="E20" s="16">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="16.8">
+      <c r="F20" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75">
       <c r="A21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="16">
+        <v>4</v>
+      </c>
+      <c r="C22" s="16">
+        <v>4</v>
+      </c>
+      <c r="D22" s="16">
+        <v>4</v>
+      </c>
+      <c r="E22" s="16">
+        <v>5</v>
+      </c>
+      <c r="F22" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75">
+      <c r="A23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="16">
-        <v>0</v>
-      </c>
-      <c r="C21" s="16">
-        <v>0</v>
-      </c>
-      <c r="D21" s="16">
-        <v>5</v>
-      </c>
-      <c r="E21" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="31.2">
-      <c r="A22" s="7" t="s">
+      <c r="B23" s="16">
+        <v>0</v>
+      </c>
+      <c r="C23" s="16">
+        <v>0</v>
+      </c>
+      <c r="D23" s="16">
+        <v>5</v>
+      </c>
+      <c r="E23" s="16">
+        <v>0</v>
+      </c>
+      <c r="F23" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30">
+      <c r="A24" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-    </row>
-    <row r="23" spans="1:5" ht="16.8">
-      <c r="A23" s="8" t="s">
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+    </row>
+    <row r="25" spans="1:6" ht="28.5">
+      <c r="A25" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="16">
-        <v>5</v>
-      </c>
-      <c r="C23" s="16">
-        <v>5</v>
-      </c>
-      <c r="D23" s="16">
+      <c r="B25" s="16">
+        <v>5</v>
+      </c>
+      <c r="C25" s="16">
+        <v>5</v>
+      </c>
+      <c r="D25" s="16">
         <v>2</v>
       </c>
-      <c r="E23" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="16.8">
-      <c r="A24" s="8" t="s">
+      <c r="E25" s="16">
+        <v>4</v>
+      </c>
+      <c r="F25" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B26" s="16">
         <v>3</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C26" s="16">
         <v>2</v>
       </c>
-      <c r="D24" s="16">
-        <v>5</v>
-      </c>
-      <c r="E24" s="16">
+      <c r="D26" s="16">
+        <v>5</v>
+      </c>
+      <c r="E26" s="16">
+        <v>4</v>
+      </c>
+      <c r="F26" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="17.399999999999999" thickBot="1">
-      <c r="A25" s="13" t="s">
+    <row r="27" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A27" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="18">
-        <v>4</v>
-      </c>
-      <c r="C25" s="18">
-        <v>4</v>
-      </c>
-      <c r="D25" s="18">
-        <v>5</v>
-      </c>
-      <c r="E25" s="18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="17.399999999999999" thickTop="1">
-      <c r="A26" s="7" t="s">
+      <c r="B27" s="18">
+        <v>4</v>
+      </c>
+      <c r="C27" s="18">
+        <v>4</v>
+      </c>
+      <c r="D27" s="18">
+        <v>5</v>
+      </c>
+      <c r="E27" s="18">
+        <v>5</v>
+      </c>
+      <c r="F27" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16.5" thickTop="1">
+      <c r="A28" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="19">
-        <f>B3+B4+B5+B6+B8+B10+B11+B13+B15+B16+B17+B18+B19+B20+B21+B23+B24+B25</f>
-        <v>25</v>
-      </c>
-      <c r="C26" s="19">
-        <f>C3+C4+C5+C6+C8+C10+C11+C13+C15+C16+C17+C18+C19+C20++C21+C23+C24+C25</f>
-        <v>37</v>
-      </c>
-      <c r="D26" s="19">
-        <f>D3+D4+D5+D6+D8+D10+D11+D13+D15+D16+D17+D18+D19+D20+D21+D23+D24+D25</f>
-        <v>82</v>
-      </c>
-      <c r="E26" s="19">
-        <f>E3+E4+E5+E6+E8+E10+E11+E13+E15+E16+E17+E18+E19+E20+E21+E23+E24+E25</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="16.8">
-      <c r="A27" s="7" t="s">
+      <c r="B28" s="19">
+        <f>SUM(B2:B27)</f>
+        <v>29</v>
+      </c>
+      <c r="C28" s="19">
+        <f>SUM(C2:C27)</f>
+        <v>41</v>
+      </c>
+      <c r="D28" s="19">
+        <f>SUM(D2:D27)</f>
+        <v>86</v>
+      </c>
+      <c r="E28" s="19">
+        <f>SUM(E2:E27)</f>
+        <v>53</v>
+      </c>
+      <c r="F28" s="19">
+        <f>SUM(F2:F27)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75">
+      <c r="A29" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="16">
-        <f>B26/18</f>
-        <v>1.3888888888888888</v>
-      </c>
-      <c r="C27" s="16">
-        <f>C26/18</f>
-        <v>2.0555555555555554</v>
-      </c>
-      <c r="D27" s="16">
-        <f>D26/18</f>
-        <v>4.5555555555555554</v>
-      </c>
-      <c r="E27" s="16">
-        <f>E26/18</f>
-        <v>1.3333333333333333</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.6">
-      <c r="A31" s="5"/>
+      <c r="B29" s="16">
+        <f>B28/18</f>
+        <v>1.6111111111111112</v>
+      </c>
+      <c r="C29" s="16">
+        <f>C28/18</f>
+        <v>2.2777777777777777</v>
+      </c>
+      <c r="D29" s="16">
+        <f>D28/18</f>
+        <v>4.7777777777777777</v>
+      </c>
+      <c r="E29" s="16">
+        <f>E28/18</f>
+        <v>2.9444444444444446</v>
+      </c>
+      <c r="F29" s="16">
+        <f>F28/18</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15.75">
+      <c r="A33" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157477" bottom="0.39370078740157477" header="0" footer="0"/>

--- a/Data/Implementation_Evaluation.xlsx
+++ b/Data/Implementation_Evaluation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\work\conferences\2020_ESSE\comparison\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32309862-4F52-4D80-9C10-E8137EAA01B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E7778D-1B15-4DDC-B220-CB59F4D55092}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>1.1 Distributed Configuration</t>
   </si>
@@ -126,9 +126,6 @@
   </si>
   <si>
     <t>Moleculer</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>7. Automation</t>
@@ -883,7 +880,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="15"/>
@@ -1000,8 +997,8 @@
       <c r="D6" s="14">
         <v>5</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>32</v>
+      <c r="E6" s="14">
+        <v>5</v>
       </c>
       <c r="F6" s="14">
         <v>0</v>
@@ -1200,8 +1197,8 @@
       <c r="D18" s="16">
         <v>5</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>32</v>
+      <c r="E18" s="16">
+        <v>4</v>
       </c>
       <c r="F18" s="16">
         <v>0</v>
@@ -1220,8 +1217,8 @@
       <c r="D19" s="16">
         <v>5</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>32</v>
+      <c r="E19" s="16">
+        <v>5</v>
       </c>
       <c r="F19" s="16">
         <v>1</v>
@@ -1241,7 +1238,7 @@
         <v>5</v>
       </c>
       <c r="E20" s="16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F20" s="16">
         <v>1</v>
@@ -1249,7 +1246,7 @@
     </row>
     <row r="21" spans="1:6" ht="15.75">
       <c r="A21" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -1259,7 +1256,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="16">
         <v>4</v>
@@ -1385,7 +1382,7 @@
       </c>
       <c r="E28" s="19">
         <f>SUM(E2:E27)</f>
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="F28" s="19">
         <f>SUM(F2:F27)</f>
@@ -1410,7 +1407,7 @@
       </c>
       <c r="E29" s="16">
         <f>E28/18</f>
-        <v>2.9444444444444446</v>
+        <v>3.9444444444444446</v>
       </c>
       <c r="F29" s="16">
         <f>F28/18</f>

--- a/Data/Implementation_Evaluation.xlsx
+++ b/Data/Implementation_Evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\work\conferences\2020_ESSE\comparison\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E7778D-1B15-4DDC-B220-CB59F4D55092}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3588234F-C275-444A-A7D7-02B9DB4F1336}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>1.1 Distributed Configuration</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Jolie</t>
   </si>
   <si>
-    <t>1.3 Reactive</t>
-  </si>
-  <si>
     <t>6.4 Timeouts</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
     <t>3. Well-Defined Interface</t>
   </si>
   <si>
-    <t>4. Smart Endpoints and Dump Pipes</t>
-  </si>
-  <si>
     <t>5. Decentralized Data Management</t>
   </si>
   <si>
@@ -113,12 +107,6 @@
     <t xml:space="preserve">10.3 Extensibility </t>
   </si>
   <si>
-    <t>Total Score:</t>
-  </si>
-  <si>
-    <t>Average Score:</t>
-  </si>
-  <si>
     <t>1.4 Access Control</t>
   </si>
   <si>
@@ -132,6 +120,12 @@
   </si>
   <si>
     <t>7.1 Containerization</t>
+  </si>
+  <si>
+    <t>4. Smart Endpoints and Dumb Pipes</t>
+  </si>
+  <si>
+    <t>8.1 Versioning</t>
   </si>
 </sst>
 </file>
@@ -250,7 +244,7 @@
       <name val="CMU Serif"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -329,14 +323,8 @@
         <bgColor rgb="FFBFBFBF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor rgb="FFBFBFBF"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -371,21 +359,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -445,17 +418,15 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -479,7 +450,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -493,52 +464,57 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -880,7 +856,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="15"/>
@@ -896,19 +872,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75">
       <c r="A1" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="19" t="s">
         <v>10</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>9</v>
@@ -916,7 +892,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.75">
       <c r="A2" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="3"/>
@@ -928,19 +904,19 @@
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14">
-        <v>0</v>
-      </c>
-      <c r="C3" s="15">
-        <v>4</v>
-      </c>
-      <c r="D3" s="14">
-        <v>4</v>
-      </c>
-      <c r="E3" s="14">
-        <v>4</v>
-      </c>
-      <c r="F3" s="15">
+      <c r="B3" s="13">
+        <v>0</v>
+      </c>
+      <c r="C3" s="14">
+        <v>4</v>
+      </c>
+      <c r="D3" s="13">
+        <v>4</v>
+      </c>
+      <c r="E3" s="13">
+        <v>4</v>
+      </c>
+      <c r="F3" s="14">
         <v>3</v>
       </c>
     </row>
@@ -948,219 +924,219 @@
       <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="14">
-        <v>0</v>
-      </c>
-      <c r="C4" s="15">
-        <v>5</v>
-      </c>
-      <c r="D4" s="14">
-        <v>4</v>
-      </c>
-      <c r="E4" s="14">
-        <v>5</v>
-      </c>
-      <c r="F4" s="14">
+      <c r="B4" s="13">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14">
+        <v>5</v>
+      </c>
+      <c r="D4" s="13">
+        <v>4</v>
+      </c>
+      <c r="E4" s="13">
+        <v>5</v>
+      </c>
+      <c r="F4" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="14">
-        <v>0</v>
-      </c>
-      <c r="C5" s="15">
-        <v>0</v>
-      </c>
-      <c r="D5" s="14">
-        <v>5</v>
-      </c>
-      <c r="E5" s="14">
-        <v>0</v>
-      </c>
-      <c r="F5" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="14">
-        <v>0</v>
-      </c>
-      <c r="C6" s="14">
-        <v>0</v>
-      </c>
-      <c r="D6" s="14">
-        <v>5</v>
-      </c>
-      <c r="E6" s="14">
-        <v>5</v>
-      </c>
-      <c r="F6" s="14">
-        <v>0</v>
-      </c>
+      <c r="A5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="13">
+        <v>0</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0</v>
+      </c>
+      <c r="D5" s="13">
+        <v>5</v>
+      </c>
+      <c r="E5" s="13">
+        <v>5</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" customHeight="1">
+      <c r="A6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" ht="15.6" customHeight="1">
-      <c r="A7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.6" customHeight="1">
-      <c r="A8" s="21" t="s">
+      <c r="A7" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="13">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0</v>
+      </c>
+      <c r="D7" s="13">
+        <v>4</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0</v>
+      </c>
+      <c r="F7" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30">
+      <c r="A8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="14">
-        <v>5</v>
-      </c>
-      <c r="C8" s="14">
-        <v>0</v>
-      </c>
-      <c r="D8" s="14">
-        <v>4</v>
-      </c>
-      <c r="E8" s="14">
-        <v>0</v>
-      </c>
-      <c r="F8" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30">
-      <c r="A9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="13">
+        <v>2</v>
+      </c>
+      <c r="C9" s="13">
+        <v>4</v>
+      </c>
+      <c r="D9" s="13">
+        <v>4</v>
+      </c>
+      <c r="E9" s="13">
+        <v>4</v>
+      </c>
+      <c r="F9" s="13">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="14">
+        <v>7</v>
+      </c>
+      <c r="B10" s="13">
+        <v>4</v>
+      </c>
+      <c r="C10" s="13">
+        <v>4</v>
+      </c>
+      <c r="D10" s="13">
+        <v>5</v>
+      </c>
+      <c r="E10" s="13">
+        <v>5</v>
+      </c>
+      <c r="F10" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30">
+      <c r="A11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="14">
-        <v>4</v>
-      </c>
-      <c r="D10" s="14">
-        <v>4</v>
-      </c>
-      <c r="E10" s="14">
-        <v>4</v>
-      </c>
-      <c r="F10" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="14">
-        <v>4</v>
-      </c>
-      <c r="C11" s="14">
-        <v>4</v>
-      </c>
-      <c r="D11" s="14">
-        <v>5</v>
-      </c>
-      <c r="E11" s="14">
-        <v>5</v>
-      </c>
-      <c r="F11" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30">
-      <c r="A12" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="9" t="s">
+      <c r="B12" s="15">
         <v>2</v>
       </c>
-      <c r="B13" s="16">
+      <c r="C12" s="15">
+        <v>0</v>
+      </c>
+      <c r="D12" s="15">
+        <v>4</v>
+      </c>
+      <c r="E12" s="15">
+        <v>4</v>
+      </c>
+      <c r="F12" s="15">
         <v>2</v>
       </c>
-      <c r="C13" s="16">
-        <v>0</v>
-      </c>
-      <c r="D13" s="16">
-        <v>4</v>
-      </c>
-      <c r="E13" s="16">
-        <v>4</v>
-      </c>
-      <c r="F13" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75">
-      <c r="A14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75">
+      <c r="A13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="15">
+        <v>0</v>
+      </c>
+      <c r="C14" s="15">
+        <v>3</v>
+      </c>
+      <c r="D14" s="15">
+        <v>5</v>
+      </c>
+      <c r="E14" s="15">
+        <v>4</v>
+      </c>
+      <c r="F14" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15" s="16">
         <v>0</v>
       </c>
       <c r="C15" s="16">
-        <v>3</v>
-      </c>
-      <c r="D15" s="16">
-        <v>5</v>
-      </c>
-      <c r="E15" s="16">
-        <v>4</v>
-      </c>
-      <c r="F15" s="16">
+        <v>5</v>
+      </c>
+      <c r="D15" s="15">
+        <v>5</v>
+      </c>
+      <c r="E15" s="15">
+        <v>4</v>
+      </c>
+      <c r="F15" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="17">
-        <v>0</v>
-      </c>
-      <c r="C16" s="17">
-        <v>5</v>
-      </c>
-      <c r="D16" s="16">
-        <v>5</v>
-      </c>
-      <c r="E16" s="16">
-        <v>4</v>
-      </c>
-      <c r="F16" s="16">
+        <v>12</v>
+      </c>
+      <c r="B16" s="15">
+        <v>0</v>
+      </c>
+      <c r="C16" s="15">
+        <v>0</v>
+      </c>
+      <c r="D16" s="15">
+        <v>5</v>
+      </c>
+      <c r="E16" s="15">
+        <v>4</v>
+      </c>
+      <c r="F16" s="15">
         <v>0</v>
       </c>
     </row>
@@ -1168,251 +1144,215 @@
       <c r="A17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="16">
-        <v>0</v>
-      </c>
-      <c r="C17" s="16">
-        <v>0</v>
-      </c>
-      <c r="D17" s="16">
-        <v>5</v>
-      </c>
-      <c r="E17" s="16">
-        <v>4</v>
-      </c>
-      <c r="F17" s="16">
+      <c r="B17" s="15">
+        <v>0</v>
+      </c>
+      <c r="C17" s="15">
+        <v>0</v>
+      </c>
+      <c r="D17" s="15">
+        <v>5</v>
+      </c>
+      <c r="E17" s="15">
+        <v>4</v>
+      </c>
+      <c r="F17" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="16">
-        <v>0</v>
-      </c>
-      <c r="C18" s="16">
-        <v>0</v>
-      </c>
-      <c r="D18" s="16">
-        <v>5</v>
-      </c>
-      <c r="E18" s="16">
-        <v>4</v>
-      </c>
-      <c r="F18" s="16">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="B18" s="15">
+        <v>0</v>
+      </c>
+      <c r="C18" s="15">
+        <v>1</v>
+      </c>
+      <c r="D18" s="15">
+        <v>5</v>
+      </c>
+      <c r="E18" s="15">
+        <v>5</v>
+      </c>
+      <c r="F18" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="16">
-        <v>0</v>
-      </c>
-      <c r="C19" s="16">
+        <v>5</v>
+      </c>
+      <c r="B19" s="15">
+        <v>0</v>
+      </c>
+      <c r="C19" s="15">
+        <v>0</v>
+      </c>
+      <c r="D19" s="15">
+        <v>5</v>
+      </c>
+      <c r="E19" s="15">
+        <v>5</v>
+      </c>
+      <c r="F19" s="15">
         <v>1</v>
       </c>
-      <c r="D19" s="16">
-        <v>5</v>
-      </c>
-      <c r="E19" s="16">
-        <v>5</v>
-      </c>
-      <c r="F19" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="16">
-        <v>0</v>
-      </c>
-      <c r="C20" s="16">
-        <v>0</v>
-      </c>
-      <c r="D20" s="16">
-        <v>5</v>
-      </c>
-      <c r="E20" s="16">
-        <v>5</v>
-      </c>
-      <c r="F20" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75">
-      <c r="A21" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="16">
-        <v>4</v>
-      </c>
-      <c r="C22" s="16">
-        <v>4</v>
-      </c>
-      <c r="D22" s="16">
-        <v>4</v>
-      </c>
-      <c r="E22" s="16">
-        <v>5</v>
-      </c>
-      <c r="F22" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75">
-      <c r="A23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="16">
-        <v>0</v>
-      </c>
-      <c r="C23" s="16">
-        <v>0</v>
-      </c>
-      <c r="D23" s="16">
-        <v>5</v>
-      </c>
-      <c r="E23" s="16">
-        <v>0</v>
-      </c>
-      <c r="F23" s="16">
+    </row>
+    <row r="20" spans="1:6" ht="15.75">
+      <c r="A20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="15">
+        <v>4</v>
+      </c>
+      <c r="C21" s="15">
+        <v>4</v>
+      </c>
+      <c r="D21" s="15">
+        <v>4</v>
+      </c>
+      <c r="E21" s="15">
+        <v>5</v>
+      </c>
+      <c r="F21" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75">
+      <c r="A22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="15">
+        <v>0</v>
+      </c>
+      <c r="C23" s="15">
+        <v>0</v>
+      </c>
+      <c r="D23" s="15">
+        <v>5</v>
+      </c>
+      <c r="E23" s="15">
+        <v>0</v>
+      </c>
+      <c r="F23" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="30">
       <c r="A24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
+        <v>21</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
     </row>
     <row r="25" spans="1:6" ht="28.5">
       <c r="A25" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="15">
+        <v>5</v>
+      </c>
+      <c r="C25" s="15">
+        <v>5</v>
+      </c>
+      <c r="D25" s="15">
+        <v>5</v>
+      </c>
+      <c r="E25" s="15">
+        <v>5</v>
+      </c>
+      <c r="F25" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="20">
+        <v>3</v>
+      </c>
+      <c r="C26" s="20">
+        <v>4</v>
+      </c>
+      <c r="D26" s="20">
+        <v>5</v>
+      </c>
+      <c r="E26" s="20">
+        <v>5</v>
+      </c>
+      <c r="F26" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="16">
-        <v>5</v>
-      </c>
-      <c r="C25" s="16">
-        <v>5</v>
-      </c>
-      <c r="D25" s="16">
-        <v>2</v>
-      </c>
-      <c r="E25" s="16">
-        <v>4</v>
-      </c>
-      <c r="F25" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="16">
-        <v>3</v>
-      </c>
-      <c r="C26" s="16">
-        <v>2</v>
-      </c>
-      <c r="D26" s="16">
-        <v>5</v>
-      </c>
-      <c r="E26" s="16">
-        <v>4</v>
-      </c>
-      <c r="F26" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A27" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="18">
-        <v>4</v>
-      </c>
-      <c r="C27" s="18">
-        <v>4</v>
-      </c>
-      <c r="D27" s="18">
-        <v>5</v>
-      </c>
-      <c r="E27" s="18">
-        <v>5</v>
-      </c>
-      <c r="F27" s="18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="16.5" thickTop="1">
-      <c r="A28" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="19">
-        <f>SUM(B2:B27)</f>
-        <v>29</v>
-      </c>
-      <c r="C28" s="19">
-        <f>SUM(C2:C27)</f>
-        <v>41</v>
-      </c>
-      <c r="D28" s="19">
-        <f>SUM(D2:D27)</f>
-        <v>86</v>
-      </c>
-      <c r="E28" s="19">
-        <f>SUM(E2:E27)</f>
-        <v>71</v>
-      </c>
-      <c r="F28" s="19">
-        <f>SUM(F2:F27)</f>
-        <v>27</v>
-      </c>
+      <c r="B27" s="25">
+        <v>4</v>
+      </c>
+      <c r="C27" s="25">
+        <v>5</v>
+      </c>
+      <c r="D27" s="25">
+        <v>5</v>
+      </c>
+      <c r="E27" s="25">
+        <v>5</v>
+      </c>
+      <c r="F27" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75">
+      <c r="A28" s="21"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
     </row>
     <row r="29" spans="1:6" ht="15.75">
-      <c r="A29" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="16">
-        <f>B28/18</f>
-        <v>1.6111111111111112</v>
-      </c>
-      <c r="C29" s="16">
-        <f>C28/18</f>
-        <v>2.2777777777777777</v>
-      </c>
-      <c r="D29" s="16">
-        <f>D28/18</f>
-        <v>4.7777777777777777</v>
-      </c>
-      <c r="E29" s="16">
-        <f>E28/18</f>
-        <v>3.9444444444444446</v>
-      </c>
-      <c r="F29" s="16">
-        <f>F28/18</f>
-        <v>1.5</v>
-      </c>
+      <c r="A29" s="21"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="23"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
     </row>
     <row r="33" spans="1:1" ht="15.75">
       <c r="A33" s="5"/>
